--- a/sprawozdanie/quick_wykres.xlsx
+++ b/sprawozdanie/quick_wykres.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\STUDIA\Semestr 4\PAMSI\C++\Projekt 1 - Sortowanie\sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79EA63F-9CC6-46B1-994E-81FF98883657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEECD435-691A-456A-A9C7-E47147113F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quick_wykres" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,10 +101,10 @@
     <t>100.00% OF ARRAY IS SORTED, BUT IT'S REVERSED</t>
   </si>
   <si>
-    <t>AVERAGE 100R</t>
+    <t>End of results</t>
   </si>
   <si>
-    <t>End of results</t>
+    <t>AVERAGE 100</t>
   </si>
 </sst>
 </file>
@@ -695,7 +702,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" sz="1800" b="1"/>
-              <a:t>QUICKSORT</a:t>
+              <a:t>QUCIKSORT</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -800,16 +807,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.99</c:v>
+                  <c:v>7.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.47</c:v>
+                  <c:v>16.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.27</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199.15</c:v>
+                  <c:v>196.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,16 +853,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.37</c:v>
+                  <c:v>7.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.25</c:v>
+                  <c:v>16.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.66</c:v>
+                  <c:v>91.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.26</c:v>
+                  <c:v>192.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,19 +896,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.01</c:v>
+                  <c:v>15.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.11</c:v>
+                  <c:v>86.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178.08</c:v>
+                  <c:v>180.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,16 +945,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.02</c:v>
+                  <c:v>6.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.54</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.87</c:v>
+                  <c:v>78.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161.54</c:v>
+                  <c:v>163.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,16 +991,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.23</c:v>
+                  <c:v>5.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>11.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.99</c:v>
+                  <c:v>141.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,19 +1034,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.7</c:v>
+                  <c:v>11.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.45</c:v>
+                  <c:v>64.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.52000000000001</c:v>
+                  <c:v>135.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,19 +1082,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.01</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.51</c:v>
+                  <c:v>11.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.05</c:v>
+                  <c:v>62.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.88</c:v>
+                  <c:v>132.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,16 +1133,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.31</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.83</c:v>
+                  <c:v>11.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.8</c:v>
+                  <c:v>66.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.74</c:v>
+                  <c:v>139.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1246,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2088,15 +2095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>379638</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>153079</xdr:rowOff>
+      <xdr:colOff>366032</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2424,12 +2431,12 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2451,6 +2458,7 @@
         <v>10000</v>
       </c>
       <c r="H2" s="1">
+        <f>B3</f>
         <v>1</v>
       </c>
     </row>
@@ -2465,7 +2473,8 @@
         <v>50000</v>
       </c>
       <c r="H3" s="1">
-        <v>7.99</v>
+        <f>B9</f>
+        <v>7.89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,7 +2488,8 @@
         <v>100000</v>
       </c>
       <c r="H4" s="1">
-        <v>16.47</v>
+        <f>B15</f>
+        <v>16.53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2493,7 +2503,8 @@
         <v>500000</v>
       </c>
       <c r="H5" s="1">
-        <v>95.27</v>
+        <f>B21</f>
+        <v>94.16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2501,7 +2512,8 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="1">
-        <v>199.15</v>
+        <f>B27</f>
+        <v>196.92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>7.99</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2553,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>16.47</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2587,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>95.27</v>
+        <v>94.16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>199.15</v>
+        <v>196.92</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,6 +2665,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="1">
+        <f>B33</f>
         <v>1</v>
       </c>
     </row>
@@ -2664,7 +2677,8 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>7.37</v>
+        <f>B39</f>
+        <v>7.22</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,7 +2689,8 @@
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>16.25</v>
+        <f>B45</f>
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,12 +2701,14 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>91.66</v>
+        <f>B51</f>
+        <v>91.84</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
-        <v>190.26</v>
+        <f>B57</f>
+        <v>192.29</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>7.37</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>16.25</v>
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>91.66</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2785,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2811,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>190.26</v>
+        <v>192.29</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2843,7 +2860,8 @@
         <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>1.0900000000000001</v>
+        <f>B63</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2851,10 +2869,11 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>7</v>
+        <f>B69</f>
+        <v>7.01</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,7 +2884,8 @@
         <v>1</v>
       </c>
       <c r="H64" s="1">
-        <v>15.01</v>
+        <f>B75</f>
+        <v>15.15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2873,15 +2893,17 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
-        <v>85.11</v>
+        <f>B81</f>
+        <v>86.45</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H66" s="1">
-        <v>178.08</v>
+        <f>B87</f>
+        <v>180.88</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>15.01</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>85.11</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>178.08</v>
+        <v>180.88</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="B88">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="B89">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3033,6 +3055,7 @@
         <v>3</v>
       </c>
       <c r="H92" s="1">
+        <f>B93</f>
         <v>1</v>
       </c>
     </row>
@@ -3044,7 +3067,8 @@
         <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>6.02</v>
+        <f>B99</f>
+        <v>6.34</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,7 +3079,8 @@
         <v>1</v>
       </c>
       <c r="H94" s="1">
-        <v>13.54</v>
+        <f>B105</f>
+        <v>13.9</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,12 +3091,14 @@
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <v>76.87</v>
+        <f>B111</f>
+        <v>78.489999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96" s="1">
-        <v>161.54</v>
+        <f>B117</f>
+        <v>163.35</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>6.02</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>13.54</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>76.87</v>
+        <v>78.489999999999995</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3191,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>161.54</v>
+        <v>163.35</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3199,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3207,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="B119">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,6 +3250,7 @@
         <v>3</v>
       </c>
       <c r="H122" s="1">
+        <f>B123</f>
         <v>1</v>
       </c>
     </row>
@@ -3234,7 +3262,8 @@
         <v>1</v>
       </c>
       <c r="H123" s="1">
-        <v>5.23</v>
+        <f>B129</f>
+        <v>5.19</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3245,7 +3274,8 @@
         <v>1</v>
       </c>
       <c r="H124" s="1">
-        <v>11.5</v>
+        <f>B135</f>
+        <v>11.95</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,12 +3286,14 @@
         <v>1</v>
       </c>
       <c r="H125" s="1">
-        <v>66.900000000000006</v>
+        <f>B141</f>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H126" s="1">
-        <v>139.99</v>
+        <f>B147</f>
+        <v>141.62</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3279,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>5.23</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>11.5</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="B137">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3347,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>66.900000000000006</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3355,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="B142">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3363,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="B143">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>139.99</v>
+        <v>141.62</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -3389,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="B149">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3413,7 +3445,8 @@
         <v>3</v>
       </c>
       <c r="H152" s="1">
-        <v>0.12</v>
+        <f>B153</f>
+        <v>0.52</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,10 +3454,11 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>0.12</v>
+        <v>0.52</v>
       </c>
       <c r="H153" s="1">
-        <v>4.99</v>
+        <f>B159</f>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -3435,7 +3469,8 @@
         <v>0</v>
       </c>
       <c r="H154" s="1">
-        <v>10.7</v>
+        <f>B165</f>
+        <v>11.04</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,12 +3481,14 @@
         <v>1</v>
       </c>
       <c r="H155" s="1">
-        <v>62.45</v>
+        <f>B171</f>
+        <v>64.150000000000006</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H156" s="1">
-        <v>132.52000000000001</v>
+        <f>B177</f>
+        <v>135.57</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>4.99</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -3477,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B165">
-        <v>10.7</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="B171">
-        <v>62.45</v>
+        <v>64.150000000000006</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="B173">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="B177">
-        <v>132.52000000000001</v>
+        <v>135.57</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -3587,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="B179">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -3603,7 +3640,8 @@
         <v>3</v>
       </c>
       <c r="H182" s="1">
-        <v>0.17</v>
+        <f>B183</f>
+        <v>0.33</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,10 +3649,11 @@
         <v>4</v>
       </c>
       <c r="B183">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="H183" s="1">
-        <v>5.01</v>
+        <f>B189</f>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -3625,7 +3664,8 @@
         <v>0</v>
       </c>
       <c r="H184" s="1">
-        <v>10.51</v>
+        <f>B195</f>
+        <v>11.15</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,12 +3676,14 @@
         <v>1</v>
       </c>
       <c r="H185" s="1">
-        <v>61.05</v>
+        <f>B201</f>
+        <v>62.6</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H186" s="1">
-        <v>128.88</v>
+        <f>B207</f>
+        <v>132.07</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -3659,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -3675,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="B195">
-        <v>10.51</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="B197">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>61.05</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B207">
-        <v>128.88</v>
+        <v>132.07</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -3777,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="B209">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -3785,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,6 +3835,7 @@
         <v>3</v>
       </c>
       <c r="H212" s="1">
+        <f>B213</f>
         <v>1</v>
       </c>
     </row>
@@ -3804,7 +3847,8 @@
         <v>1</v>
       </c>
       <c r="H213" s="1">
-        <v>5.31</v>
+        <f>B219</f>
+        <v>5.03</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -3815,7 +3859,8 @@
         <v>1</v>
       </c>
       <c r="H214" s="1">
-        <v>11.83</v>
+        <f>B225</f>
+        <v>11.73</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -3826,12 +3871,14 @@
         <v>1</v>
       </c>
       <c r="H215" s="1">
-        <v>65.8</v>
+        <f>B231</f>
+        <v>66.23</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H216" s="1">
-        <v>136.74</v>
+        <f>B237</f>
+        <v>139.06</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="B219">
-        <v>5.31</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -3883,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="B225">
-        <v>11.83</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3899,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B227">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B231">
-        <v>65.8</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B233">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B237">
-        <v>136.74</v>
+        <v>139.06</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +4019,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sprawozdanie/quick_wykres.xlsx
+++ b/sprawozdanie/quick_wykres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\STUDIA\Semestr 4\PAMSI\C++\Projekt 1 - Sortowanie\sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEECD435-691A-456A-A9C7-E47147113F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499FD0C-CEAA-46C8-BCC9-FC9DA2DFCBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,16 +807,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.89</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.53</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.16</c:v>
+                  <c:v>80.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.92</c:v>
+                  <c:v>168.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,16 +853,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.059999999999999</c:v>
+                  <c:v>13.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.84</c:v>
+                  <c:v>77.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.29</c:v>
+                  <c:v>164.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,16 +899,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.01</c:v>
+                  <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.15</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.45</c:v>
+                  <c:v>73.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.88</c:v>
+                  <c:v>153.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,19 +942,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.34</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.9</c:v>
+                  <c:v>11.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.489999999999995</c:v>
+                  <c:v>65.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163.35</c:v>
+                  <c:v>137.47999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,19 +988,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.19</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.95</c:v>
+                  <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>57.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.62</c:v>
+                  <c:v>117.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,19 +1034,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.04</c:v>
+                  <c:v>9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.150000000000006</c:v>
+                  <c:v>52.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.57</c:v>
+                  <c:v>111.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,19 +1082,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.6</c:v>
+                  <c:v>52.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.07</c:v>
+                  <c:v>111.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,19 +1130,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.03</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.73</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.23</c:v>
+                  <c:v>53.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.06</c:v>
+                  <c:v>111.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="H3" s="1">
         <f>B9</f>
-        <v>7.89</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H4" s="1">
         <f>B15</f>
-        <v>16.53</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="H5" s="1">
         <f>B21</f>
-        <v>94.16</v>
+        <v>80.16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H6" s="1">
         <f>B27</f>
-        <v>196.92</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>7.89</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>16.53</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>94.16</v>
+        <v>80.16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>196.92</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="H33" s="1">
         <f>B39</f>
-        <v>7.22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="H34" s="1">
         <f>B45</f>
-        <v>16.059999999999999</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,13 +2702,13 @@
       </c>
       <c r="H35" s="1">
         <f>B51</f>
-        <v>91.84</v>
+        <v>77.819999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
         <f>B57</f>
-        <v>192.29</v>
+        <v>164.15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>7.22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>16.059999999999999</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>91.84</v>
+        <v>77.819999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>192.29</v>
+        <v>164.15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H63" s="1">
         <f>B69</f>
-        <v>7.01</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H64" s="1">
         <f>B75</f>
-        <v>15.15</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,13 +2897,13 @@
       </c>
       <c r="H65" s="1">
         <f>B81</f>
-        <v>86.45</v>
+        <v>73.150000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H66" s="1">
         <f>B87</f>
-        <v>180.88</v>
+        <v>153.85</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>7.01</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>5</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>15.15</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>86.45</v>
+        <v>73.150000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="B82">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>180.88</v>
+        <v>153.85</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="B88">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="B89">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H92" s="1">
         <f>B93</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,11 +3064,11 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H93" s="1">
         <f>B99</f>
-        <v>6.34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3076,11 +3076,11 @@
         <v>5</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="1">
         <f>B105</f>
-        <v>13.9</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,13 +3092,13 @@
       </c>
       <c r="H95" s="1">
         <f>B111</f>
-        <v>78.489999999999995</v>
+        <v>65.430000000000007</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96" s="1">
         <f>B117</f>
-        <v>163.35</v>
+        <v>137.47999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>6.34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3150,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>13.9</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>78.489999999999995</v>
+        <v>65.430000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="B113">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>163.35</v>
+        <v>137.47999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="B119">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H122" s="1">
         <f>B123</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -3259,11 +3259,11 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H123" s="1">
         <f>B129</f>
-        <v>5.19</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3271,11 +3271,11 @@
         <v>5</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1">
         <f>B135</f>
-        <v>11.95</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,13 +3287,13 @@
       </c>
       <c r="H125" s="1">
         <f>B141</f>
-        <v>68</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H126" s="1">
         <f>B147</f>
-        <v>141.62</v>
+        <v>117.39</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>5.19</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>11.95</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="B137">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>68</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="B142">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3395,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="B143">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -3413,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>141.62</v>
+        <v>117.39</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="H152" s="1">
         <f>B153</f>
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -3454,11 +3454,11 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="H153" s="1">
         <f>B159</f>
-        <v>5.0199999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="H154" s="1">
         <f>B165</f>
-        <v>11.04</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
       </c>
       <c r="H155" s="1">
         <f>B171</f>
-        <v>64.150000000000006</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H156" s="1">
         <f>B177</f>
-        <v>135.57</v>
+        <v>111.35</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>5.0199999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B165">
-        <v>11.04</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="B171">
-        <v>64.150000000000006</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="B173">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="B177">
-        <v>135.57</v>
+        <v>111.35</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="B179">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H182" s="1">
         <f>B183</f>
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -3649,11 +3649,11 @@
         <v>4</v>
       </c>
       <c r="B183">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="H183" s="1">
         <f>B189</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H184" s="1">
         <f>B195</f>
-        <v>11.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,13 +3677,13 @@
       </c>
       <c r="H185" s="1">
         <f>B201</f>
-        <v>62.6</v>
+        <v>52.07</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H186" s="1">
         <f>B207</f>
-        <v>132.07</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="B195">
-        <v>11.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="B197">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>62.6</v>
+        <v>52.07</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B207">
-        <v>132.07</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="B209">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="H212" s="1">
         <f>B213</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,11 +3844,11 @@
         <v>4</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="1">
         <f>B219</f>
-        <v>5.03</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -3856,11 +3856,11 @@
         <v>5</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="1">
         <f>B225</f>
-        <v>11.73</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,17 +3868,17 @@
         <v>6</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="1">
         <f>B231</f>
-        <v>66.23</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H216" s="1">
         <f>B237</f>
-        <v>139.06</v>
+        <v>111.43</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="B219">
-        <v>5.03</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -3912,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="B221">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="B225">
-        <v>11.73</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B227">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B231">
-        <v>66.23</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B233">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B237">
-        <v>139.06</v>
+        <v>111.43</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
